--- a/res/CCMthermodynamicsAndRegulationContingency.xlsx
+++ b/res/CCMthermodynamicsAndRegulationContingency.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="CCMthermodynamicsAndRegulation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="157">
   <si>
     <t>VarName1</t>
   </si>
@@ -479,13 +480,44 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Threshold for reversibility: log(Γ)&gt;6.9 is considerred irreversible</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IMPORTANT: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mox</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deleted as it is the same as mqo!</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,8 +653,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,6 +875,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -987,7 +1042,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -998,6 +1053,8 @@
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1342,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,28 +1464,28 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3">
-        <v>8.32</v>
+        <v>-23.79</v>
       </c>
       <c r="E2" s="3">
-        <v>1.1399999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="F2" s="3">
-        <v>8.32</v>
+        <v>-23.79</v>
       </c>
       <c r="G2" s="3">
-        <v>3.36</v>
+        <v>-9.6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -1449,725 +1506,745 @@
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>3.36</v>
+        <v>9.6</v>
       </c>
       <c r="P2" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8.32</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8.32</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.36</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>3.36</v>
+      </c>
+      <c r="P3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="5">
         <v>-28.77</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="5">
         <v>3.92</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="5">
         <v>-28.77</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="5">
         <v>-3.87</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
         <v>3.87</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.24</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5">
+        <v>18.64</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="5">
+        <v>18.64</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.76</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3.76</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-0.69</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.69</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.09</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="G8" s="5">
+        <v>-0.22</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="P8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-4.09</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-4.09</v>
+      </c>
+      <c r="G9" s="5">
+        <v>-1.65</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5">
+        <v>27.83</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="F10" s="5">
+        <v>27.83</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5.62</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>5.62</v>
+      </c>
+      <c r="P10" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="5">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-0.66</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="P11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="G12" s="5">
+        <v>-1.68</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="P12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-3.37</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-3.37</v>
+      </c>
+      <c r="G13" s="5">
+        <v>-1.36</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="P13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-0.71</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-0.71</v>
+      </c>
+      <c r="G14" s="5">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="N14" s="5">
+        <v>5</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3">
-        <v>3.24</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="F4" s="3">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3.29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="D15" s="5">
+        <v>5.52</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5.52</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>3.29</v>
-      </c>
-      <c r="P4" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-103.1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-103.1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-20.81</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>20.81</v>
-      </c>
-      <c r="P5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="3">
-        <v>18.64</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="F6" s="3">
-        <v>18.64</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.76</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>3.76</v>
-      </c>
-      <c r="P6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-23.79</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-23.79</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-9.6</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="P7" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5.42</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="F8" s="4">
-        <v>-11.7</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-3.15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="4">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>3.15</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-37.56</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-37.56</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-7.58</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>7.58</v>
-      </c>
-      <c r="P9" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4">
-        <v>-43.06</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2.61</v>
-      </c>
-      <c r="F10" s="4">
-        <v>-43.06</v>
-      </c>
-      <c r="G10" s="4">
-        <v>-17.38</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4">
-        <v>2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>17.38</v>
-      </c>
-      <c r="P10" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4">
-        <v>-9.3699999999999992</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-26.48</v>
-      </c>
-      <c r="G11" s="4">
-        <v>-7.13</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="L15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="4">
-        <v>10</v>
-      </c>
-      <c r="N11" s="4">
-        <v>9</v>
-      </c>
-      <c r="O11" s="4">
-        <v>7.13</v>
-      </c>
-      <c r="P11" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-35.26</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-35.26</v>
-      </c>
-      <c r="G12" s="4">
-        <v>-7.12</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="4">
-        <v>2</v>
-      </c>
-      <c r="N12" s="4">
-        <v>3</v>
-      </c>
-      <c r="O12" s="4">
-        <v>7.12</v>
-      </c>
-      <c r="P12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4">
-        <v>10.98</v>
-      </c>
-      <c r="P13" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4">
-        <v>-35.65</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="F14" s="4">
-        <v>-35.65</v>
-      </c>
-      <c r="G14" s="4">
-        <v>-4.8</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="P14" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-17.72</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="F15" s="4">
-        <v>-17.72</v>
-      </c>
-      <c r="G15" s="4">
-        <v>-3.58</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="4">
-        <v>9</v>
-      </c>
-      <c r="N15" s="4">
-        <v>8</v>
-      </c>
-      <c r="O15" s="4">
-        <v>3.58</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="P15" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4">
-        <v>-14.86</v>
+        <v>-37.56</v>
       </c>
       <c r="E16" s="4">
-        <v>0.19</v>
+        <v>0.44</v>
       </c>
       <c r="F16" s="4">
-        <v>-31.97</v>
+        <v>-37.56</v>
       </c>
       <c r="G16" s="4">
-        <v>-8.6</v>
+        <v>-7.58</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4">
-        <v>8.6</v>
+        <v>7.58</v>
       </c>
       <c r="P16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D17" s="4">
-        <v>-38.07</v>
+        <v>-43.06</v>
       </c>
       <c r="E17" s="4">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="F17" s="4">
-        <v>-38.07</v>
+        <v>-43.06</v>
       </c>
       <c r="G17" s="4">
-        <v>-7.68</v>
+        <v>-17.38</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>33</v>
@@ -2176,42 +2253,42 @@
         <v>22</v>
       </c>
       <c r="M17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O17" s="4">
-        <v>7.68</v>
+        <v>17.38</v>
       </c>
       <c r="P17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="4">
-        <v>-25.81</v>
+        <v>-9.3699999999999992</v>
       </c>
       <c r="E18" s="4">
-        <v>0.43</v>
+        <v>0.7</v>
       </c>
       <c r="F18" s="4">
-        <v>-25.81</v>
+        <v>-26.48</v>
       </c>
       <c r="G18" s="4">
-        <v>-5.21</v>
+        <v>-7.13</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>31</v>
@@ -2223,504 +2300,484 @@
         <v>33</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M18" s="4">
+        <v>10</v>
+      </c>
+      <c r="N18" s="4">
+        <v>9</v>
+      </c>
+      <c r="O18" s="4">
+        <v>7.13</v>
+      </c>
+      <c r="P18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-35.26</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-35.26</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-7.12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4">
         <v>3</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O19" s="4">
+        <v>7.12</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4">
+        <v>10.98</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-14.86</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-31.97</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-8.6</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
+      <c r="N21" s="4">
+        <v>4</v>
+      </c>
+      <c r="O21" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-38.07</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-38.07</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-7.68</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="4">
+        <v>3</v>
+      </c>
+      <c r="N22" s="4">
+        <v>10</v>
+      </c>
+      <c r="O22" s="4">
+        <v>7.68</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5.42</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-11.7</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-3.15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-35.65</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-35.65</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-4.8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-17.72</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-17.72</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-3.58</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="2">
+        <v>9</v>
+      </c>
+      <c r="N25" s="2">
+        <v>8</v>
+      </c>
+      <c r="O25" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-25.81</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-25.81</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-5.21</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3</v>
+      </c>
+      <c r="N26" s="2">
         <v>7</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O26" s="2">
         <v>5.21</v>
       </c>
-      <c r="P18" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.69</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F19" s="5">
-        <v>-0.69</v>
-      </c>
-      <c r="G19" s="5">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="P19" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="5">
-        <v>16.309999999999999</v>
-      </c>
-      <c r="E20" s="5">
-        <v>2.09</v>
-      </c>
-      <c r="F20" s="5">
-        <v>-0.8</v>
-      </c>
-      <c r="G20" s="5">
-        <v>-0.22</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="P20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="5">
-        <v>-4.09</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="F21" s="5">
-        <v>-4.09</v>
-      </c>
-      <c r="G21" s="5">
-        <v>-1.65</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <v>1.65</v>
-      </c>
-      <c r="P21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="5">
-        <v>27.83</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="F22" s="5">
-        <v>27.83</v>
-      </c>
-      <c r="G22" s="5">
-        <v>5.62</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="O22" s="5">
-        <v>5.62</v>
-      </c>
-      <c r="P22" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="5">
-        <v>13</v>
-      </c>
-      <c r="E23" s="5">
-        <v>3.16</v>
-      </c>
-      <c r="F23" s="5">
-        <v>-4.1100000000000003</v>
-      </c>
-      <c r="G23" s="5">
-        <v>-0.66</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0</v>
-      </c>
-      <c r="O23" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="P23" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="5">
-        <v>-4.1500000000000004</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="F24" s="5">
-        <v>-4.1500000000000004</v>
-      </c>
-      <c r="G24" s="5">
-        <v>-1.68</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0</v>
-      </c>
-      <c r="O24" s="5">
-        <v>1.68</v>
-      </c>
-      <c r="P24" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-3.37</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F25" s="5">
-        <v>-3.37</v>
-      </c>
-      <c r="G25" s="5">
-        <v>-1.36</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
-      <c r="O25" s="5">
-        <v>1.36</v>
-      </c>
-      <c r="P25" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="5">
-        <v>-0.71</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1.43</v>
-      </c>
-      <c r="F26" s="5">
-        <v>-0.71</v>
-      </c>
-      <c r="G26" s="5">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="5" t="s">
+      <c r="D27" s="2">
+        <v>21.59</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="5">
-        <v>4</v>
-      </c>
-      <c r="N26" s="5">
+      <c r="L27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="2">
         <v>5</v>
       </c>
-      <c r="O26" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P26" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="5">
-        <v>5.52</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5.52</v>
-      </c>
-      <c r="G27" s="5">
-        <v>2.23</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="5">
-        <v>1</v>
-      </c>
-      <c r="N27" s="5">
-        <v>1</v>
-      </c>
-      <c r="O27" s="5">
-        <v>2.23</v>
-      </c>
-      <c r="P27" s="5">
-        <v>2</v>
+      <c r="N27" s="2">
+        <v>11</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2">
-        <v>21.59</v>
+        <v>-3.44</v>
       </c>
       <c r="E28" s="2">
-        <v>0.54</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F28" s="2">
-        <v>4.4800000000000004</v>
+        <v>-3.44</v>
       </c>
       <c r="G28" s="2">
-        <v>1.2</v>
+        <v>-1.39</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>33</v>
@@ -2729,13 +2786,13 @@
         <v>51</v>
       </c>
       <c r="M28" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" s="2">
         <v>11</v>
       </c>
       <c r="O28" s="2">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
@@ -2743,34 +2800,34 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2">
-        <v>-3.44</v>
+        <v>-5.6</v>
       </c>
       <c r="E29" s="2">
-        <v>0.28000000000000003</v>
+        <v>1.33</v>
       </c>
       <c r="F29" s="2">
-        <v>-3.44</v>
+        <v>-5.6</v>
       </c>
       <c r="G29" s="2">
-        <v>-1.39</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>33</v>
@@ -2779,13 +2836,13 @@
         <v>51</v>
       </c>
       <c r="M29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O29" s="2">
-        <v>1.39</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="P29" s="2">
         <v>1</v>
@@ -2793,28 +2850,28 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2">
-        <v>-5.6</v>
+        <v>-7.03</v>
       </c>
       <c r="E30" s="2">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="F30" s="2">
-        <v>-5.6</v>
+        <v>-7.03</v>
       </c>
       <c r="G30" s="2">
-        <v>-1.1299999999999999</v>
+        <v>-1.42</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>31</v>
@@ -2829,13 +2886,13 @@
         <v>51</v>
       </c>
       <c r="M30" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N30" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O30" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="P30" s="2">
         <v>1</v>
@@ -2843,28 +2900,28 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2">
-        <v>-7.03</v>
+        <v>10.79</v>
       </c>
       <c r="E31" s="2">
-        <v>1.37</v>
+        <v>3.22</v>
       </c>
       <c r="F31" s="2">
-        <v>-7.03</v>
+        <v>-6.33</v>
       </c>
       <c r="G31" s="2">
-        <v>-1.42</v>
+        <v>-1.02</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>31</v>
@@ -2876,16 +2933,16 @@
         <v>33</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M31" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N31" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O31" s="2">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="P31" s="2">
         <v>1</v>
@@ -2893,49 +2950,49 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2">
-        <v>10.79</v>
+        <v>5.97</v>
       </c>
       <c r="E32" s="2">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="F32" s="2">
-        <v>-6.33</v>
+        <v>-11.14</v>
       </c>
       <c r="G32" s="2">
-        <v>-1.02</v>
+        <v>-1.8</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
         <v>2</v>
       </c>
-      <c r="N32" s="2">
-        <v>6</v>
-      </c>
       <c r="O32" s="2">
-        <v>1.02</v>
+        <v>1.8</v>
       </c>
       <c r="P32" s="2">
         <v>1</v>
@@ -2943,28 +3000,28 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2">
-        <v>5.97</v>
+        <v>9.44</v>
       </c>
       <c r="E33" s="2">
-        <v>3.23</v>
+        <v>1.36</v>
       </c>
       <c r="F33" s="2">
-        <v>-11.14</v>
+        <v>-7.67</v>
       </c>
       <c r="G33" s="2">
-        <v>-1.8</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>31</v>
@@ -2979,13 +3036,13 @@
         <v>51</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N33" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O33" s="2">
-        <v>1.8</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="P33" s="2">
         <v>1</v>
@@ -2993,49 +3050,49 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="2">
-        <v>9.44</v>
+        <v>13.18</v>
       </c>
       <c r="E34" s="2">
-        <v>1.36</v>
+        <v>3.18</v>
       </c>
       <c r="F34" s="2">
-        <v>-7.67</v>
+        <v>-3.93</v>
       </c>
       <c r="G34" s="2">
-        <v>-2.0699999999999998</v>
+        <v>-0.63</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M34" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N34" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O34" s="2">
-        <v>2.0699999999999998</v>
+        <v>0.63</v>
       </c>
       <c r="P34" s="2">
         <v>1</v>
@@ -3043,34 +3100,34 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2">
-        <v>13.18</v>
+        <v>2.52</v>
       </c>
       <c r="E35" s="2">
-        <v>3.18</v>
+        <v>0.39</v>
       </c>
       <c r="F35" s="2">
-        <v>-3.93</v>
+        <v>2.52</v>
       </c>
       <c r="G35" s="2">
-        <v>-0.63</v>
+        <v>1.02</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>33</v>
@@ -3079,13 +3136,13 @@
         <v>22</v>
       </c>
       <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
         <v>2</v>
       </c>
-      <c r="N35" s="2">
-        <v>15</v>
-      </c>
       <c r="O35" s="2">
-        <v>0.63</v>
+        <v>1.02</v>
       </c>
       <c r="P35" s="2">
         <v>1</v>
@@ -3093,34 +3150,34 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2">
-        <v>2.52</v>
+        <v>10.98</v>
       </c>
       <c r="E36" s="2">
-        <v>0.39</v>
+        <v>3.16</v>
       </c>
       <c r="F36" s="2">
-        <v>2.52</v>
+        <v>-6.14</v>
       </c>
       <c r="G36" s="2">
-        <v>1.02</v>
+        <v>-0.99</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>33</v>
@@ -3129,13 +3186,13 @@
         <v>22</v>
       </c>
       <c r="M36" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N36" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O36" s="2">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="P36" s="2">
         <v>1</v>
@@ -3143,34 +3200,34 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2">
-        <v>10.98</v>
+        <v>0.05</v>
       </c>
       <c r="E37" s="2">
-        <v>3.16</v>
+        <v>0.5</v>
       </c>
       <c r="F37" s="2">
-        <v>-6.14</v>
+        <v>-17.07</v>
       </c>
       <c r="G37" s="2">
-        <v>-0.99</v>
+        <v>-2.76</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>33</v>
@@ -3182,10 +3239,10 @@
         <v>4</v>
       </c>
       <c r="N37" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O37" s="2">
-        <v>0.99</v>
+        <v>2.76</v>
       </c>
       <c r="P37" s="2">
         <v>1</v>
@@ -3193,28 +3250,28 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2">
-        <v>0.05</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E38" s="2">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="F38" s="2">
-        <v>-17.07</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G38" s="2">
-        <v>-2.76</v>
+        <v>0.81</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>31</v>
@@ -3226,16 +3283,16 @@
         <v>33</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N38" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O38" s="2">
-        <v>2.76</v>
+        <v>0.81</v>
       </c>
       <c r="P38" s="2">
         <v>1</v>
@@ -3243,40 +3300,40 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2">
-        <v>2.0099999999999998</v>
+        <v>-1.6</v>
       </c>
       <c r="E39" s="2">
-        <v>0.77</v>
+        <v>1.35</v>
       </c>
       <c r="F39" s="2">
-        <v>2.0099999999999998</v>
+        <v>-1.6</v>
       </c>
       <c r="G39" s="2">
-        <v>0.81</v>
+        <v>-0.22</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M39" s="2">
         <v>2</v>
@@ -3285,7 +3342,7 @@
         <v>5</v>
       </c>
       <c r="O39" s="2">
-        <v>0.81</v>
+        <v>0.22</v>
       </c>
       <c r="P39" s="2">
         <v>1</v>
@@ -3293,28 +3350,28 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2">
-        <v>-1.6</v>
+        <v>-3.82</v>
       </c>
       <c r="E40" s="2">
-        <v>1.35</v>
+        <v>1.94</v>
       </c>
       <c r="F40" s="2">
-        <v>-1.6</v>
+        <v>-3.82</v>
       </c>
       <c r="G40" s="2">
-        <v>-0.22</v>
+        <v>-0.77</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>31</v>
@@ -3329,13 +3386,13 @@
         <v>22</v>
       </c>
       <c r="M40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O40" s="2">
-        <v>0.22</v>
+        <v>0.77</v>
       </c>
       <c r="P40" s="2">
         <v>1</v>
@@ -3343,7 +3400,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>138</v>
@@ -3352,93 +3409,103 @@
         <v>39</v>
       </c>
       <c r="D41" s="2">
-        <v>-3.82</v>
+        <v>-10.11</v>
       </c>
       <c r="E41" s="2">
         <v>1.94</v>
       </c>
       <c r="F41" s="2">
-        <v>-3.82</v>
+        <v>-10.11</v>
       </c>
       <c r="G41" s="2">
-        <v>-0.77</v>
+        <v>-2.04</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M41" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-103.1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F46" s="3">
+        <v>-103.1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>-20.81</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>20.81</v>
+      </c>
+      <c r="P46" s="3">
         <v>4</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="P41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="2">
-        <v>-10.11</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1.94</v>
-      </c>
-      <c r="F42" s="2">
-        <v>-10.11</v>
-      </c>
-      <c r="G42" s="2">
-        <v>-2.04</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <v>2.04</v>
-      </c>
-      <c r="P42" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -3454,10 +3521,10 @@
         <v>147</v>
       </c>
       <c r="F49" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G49" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.25">
@@ -3465,16 +3532,2205 @@
         <v>148</v>
       </c>
       <c r="F50" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G50" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T42">
+  <sortState ref="A2:Q42">
     <sortCondition descending="1" ref="P2:P42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-43.06</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-43.06</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-17.38</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>17.38</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
+        <v>10.98</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-23.79</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-23.79</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-9.6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-14.86</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-31.97</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-8.6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4">
+        <v>4</v>
+      </c>
+      <c r="O5" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-38.07</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-38.07</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-7.68</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10</v>
+      </c>
+      <c r="O6" s="4">
+        <v>7.68</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-37.56</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-37.56</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-7.58</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>7.58</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-26.48</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-7.13</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="4">
+        <v>10</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9</v>
+      </c>
+      <c r="O8" s="4">
+        <v>7.13</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-35.26</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-35.26</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-7.12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>7.12</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5">
+        <v>27.83</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="F10" s="5">
+        <v>27.83</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5.62</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>5.62</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-25.81</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-25.81</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-5.21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>7</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-35.65</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-35.65</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-4.8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-28.77</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.92</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-28.77</v>
+      </c>
+      <c r="G13" s="5">
+        <v>-3.87</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>3.87</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5">
+        <v>18.64</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="F14" s="5">
+        <v>18.64</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3.76</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>3.76</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-17.72</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-17.72</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-3.58</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="2">
+        <v>9</v>
+      </c>
+      <c r="N15" s="2">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8.32</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8.32</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3.36</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>3.36</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3.24</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="F17" s="5">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.42</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-11.7</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-3.15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-17.07</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-2.76</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="2">
+        <v>4</v>
+      </c>
+      <c r="N19" s="2">
+        <v>12</v>
+      </c>
+      <c r="O19" s="2">
+        <v>2.76</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5.52</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5.52</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.44</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-7.67</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5</v>
+      </c>
+      <c r="N21" s="2">
+        <v>13</v>
+      </c>
+      <c r="O21" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-10.11</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-10.11</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-2.04</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5.97</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-11.14</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="F24" s="5">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="G24" s="5">
+        <v>-1.68</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-4.09</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-4.09</v>
+      </c>
+      <c r="G25" s="5">
+        <v>-1.65</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-7.03</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-7.03</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-1.42</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="2">
+        <v>15</v>
+      </c>
+      <c r="N26" s="2">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-3.44</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-3.44</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-1.39</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>11</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-3.37</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F28" s="5">
+        <v>-3.37</v>
+      </c>
+      <c r="G28" s="5">
+        <v>-1.36</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2">
+        <v>21.59</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="2">
+        <v>5</v>
+      </c>
+      <c r="N29" s="2">
+        <v>11</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-5.6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-5.6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3</v>
+      </c>
+      <c r="N30" s="2">
+        <v>9</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10.79</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-6.33</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-1.02</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2">
+        <v>6</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10.98</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-6.14</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-0.99</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="2">
+        <v>4</v>
+      </c>
+      <c r="N33" s="2">
+        <v>10</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="2">
+        <v>2</v>
+      </c>
+      <c r="N34" s="2">
+        <v>5</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-3.82</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-3.82</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-0.77</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="2">
+        <v>3</v>
+      </c>
+      <c r="N35" s="2">
+        <v>4</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="5">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="F36" s="5">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="G36" s="5">
+        <v>-0.66</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="2">
+        <v>13.18</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-3.93</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-0.63</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2</v>
+      </c>
+      <c r="N37" s="2">
+        <v>15</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-0.69</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F38" s="5">
+        <v>-0.69</v>
+      </c>
+      <c r="G38" s="5">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="5">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2.09</v>
+      </c>
+      <c r="F39" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="G39" s="5">
+        <v>-0.22</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-0.22</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2</v>
+      </c>
+      <c r="N40" s="2">
+        <v>5</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-0.71</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="F41" s="5">
+        <v>-0.71</v>
+      </c>
+      <c r="G41" s="5">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="5">
+        <v>4</v>
+      </c>
+      <c r="N41" s="5">
+        <v>5</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:Q42">
+    <sortCondition descending="1" ref="O2:O42"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>